--- a/Martin BISSIRIOU projet_c_contest.xlsx
+++ b/Martin BISSIRIOU projet_c_contest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Portfolio_BISSIRIOU_Martin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\campus contest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4538E2FE-1F2B-4AB5-A55E-C1C5C5C30874}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40818CF6-9541-4AC1-BD8C-668E6A0C6DBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="708" windowWidth="12264" windowHeight="8592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Programme</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Recherche portfolio</t>
   </si>
   <si>
-    <t>Creer page 2 (CV.html)</t>
-  </si>
-  <si>
     <t>Faire BDD</t>
   </si>
   <si>
@@ -69,10 +66,22 @@
     <t>Aborescence</t>
   </si>
   <si>
-    <t>Creer page 3 (Projets.html)</t>
-  </si>
-  <si>
-    <t>Creer page 1 (Presentation index.html)</t>
+    <t>Commentaire</t>
+  </si>
+  <si>
+    <t>Creer page 1 (Acceuil index.html)</t>
+  </si>
+  <si>
+    <t>Creer page 2 (PRESENTATION.html)</t>
+  </si>
+  <si>
+    <t>Creer page 3 (CV.html)</t>
+  </si>
+  <si>
+    <t>Créer page 4(PROJETS.html</t>
+  </si>
+  <si>
+    <t>Créer page 5(CONTACTS.html</t>
   </si>
 </sst>
 </file>
@@ -452,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,65 +499,95 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="C11" t="s">
-        <v>11</v>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
